--- a/SPGI.xlsx
+++ b/SPGI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7A4810-EC1A-48E0-B039-7CC15DE951AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86570829-B8E9-4D00-9932-3E3999345BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="2900" windowWidth="21900" windowHeight="14640" xr2:uid="{C9B29819-6B6B-4068-871D-3BDB694D78E1}"/>
+    <workbookView xWindow="40110" yWindow="2450" windowWidth="18410" windowHeight="14130" xr2:uid="{C9B29819-6B6B-4068-871D-3BDB694D78E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Price</t>
   </si>
@@ -93,9 +93,6 @@
     <t>CEO: Martina L. Cheung</t>
   </si>
   <si>
-    <t>2/28/2022: merged with HIS Markit</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -138,18 +135,6 @@
     <t>Engineering</t>
   </si>
   <si>
-    <t>ProntoNLP</t>
-  </si>
-  <si>
-    <t>PrimeOne - sold</t>
-  </si>
-  <si>
-    <t>Visible Alpha</t>
-  </si>
-  <si>
-    <t>Fincentric - sale</t>
-  </si>
-  <si>
     <t>ChartIQ</t>
   </si>
   <si>
@@ -232,6 +217,66 @@
   </si>
   <si>
     <t>CFFO</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>big deal win</t>
+  </si>
+  <si>
+    <t>9/17/2004: McGraw-Hill acquires Capital IQ (founded in 1998)</t>
+  </si>
+  <si>
+    <t>9/21/2010: Capital IQ acquires TheMarkets.com</t>
+  </si>
+  <si>
+    <t>5/1/2013: Name changes to McGraw Hill Financial.</t>
+  </si>
+  <si>
+    <t>7/27/2015: McGraw Hill Financial (MHFI) acquires SNL Financial for $2.225B in cash.</t>
+  </si>
+  <si>
+    <t>Platts</t>
+  </si>
+  <si>
+    <t>4/27/2016: Changes name to S&amp;P Global.</t>
+  </si>
+  <si>
+    <t>4/3/2012: Capital IP acquires QuantHouse (later sold back to founder)</t>
+  </si>
+  <si>
+    <t>3/6/2018: acquires Kensho for $550m</t>
+  </si>
+  <si>
+    <t>11/30/2020: announced IHS Markit merger.</t>
+  </si>
+  <si>
+    <t>2/28/2022: merged with IHS Markit ($44B).</t>
+  </si>
+  <si>
+    <t>11/1/2024: PrimeOne - sold to TS Imagine</t>
+  </si>
+  <si>
+    <t>8/15/24: Fincentric - sold to Stellex Capital</t>
+  </si>
+  <si>
+    <t>5/1/24: acquires Visible Alpha for $500m</t>
+  </si>
+  <si>
+    <t>4/29/25: divesting Mobility</t>
+  </si>
+  <si>
+    <t>1/6/25: acquires ProntoNLP</t>
+  </si>
+  <si>
+    <t>Lost a lot of market share to FDS in IB over the last 10 years</t>
+  </si>
+  <si>
+    <t>Always has been weak on the buyside</t>
+  </si>
+  <si>
+    <t>Capital IQ Pro - very slow rollout</t>
   </si>
 </sst>
 </file>
@@ -642,9 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEF338D-DC8B-408E-B6F1-D23C9BFE8B60}">
-  <dimension ref="B2:R19"/>
+  <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -754,40 +801,106 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P13" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P14" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P15" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -797,10 +910,10 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -812,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,7 +943,7 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3">
         <v>6653</v>
@@ -844,7 +957,7 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
         <v>2597</v>
@@ -858,7 +971,7 @@
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>1246</v>
@@ -872,7 +985,7 @@
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>685</v>
@@ -886,7 +999,7 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>6201</v>
@@ -900,7 +1013,7 @@
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>1807</v>
@@ -914,7 +1027,7 @@
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
         <v>1640</v>
@@ -928,7 +1041,7 @@
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3">
         <v>862</v>
@@ -942,7 +1055,7 @@
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3">
         <v>286</v>
@@ -956,7 +1069,7 @@
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>385</v>
@@ -970,7 +1083,7 @@
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <f>SUM(C8:C13)</f>
@@ -987,7 +1100,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>3753</v>
@@ -1001,7 +1114,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3">
         <v>3396</v>
@@ -1015,7 +1128,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <f>+C14-C15-C16</f>
@@ -1032,7 +1145,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <f>-304+70</f>
@@ -1049,7 +1162,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
         <f>+C17+C18</f>
@@ -1066,7 +1179,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3">
         <f>1180+274</f>
@@ -1083,7 +1196,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ref="C21:D21" si="1">+C19-C20</f>
@@ -1100,7 +1213,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:D22" si="2">+C21/C23</f>
@@ -1131,7 +1244,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
         <v>2488</v>
@@ -1201,7 +1314,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3">
         <v>15</v>
@@ -1215,7 +1328,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E33" s="3">
         <f>+E34-E46</f>
@@ -1233,7 +1346,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E35" s="3">
         <v>2867</v>
@@ -1241,7 +1354,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E36" s="3">
         <v>906</v>
@@ -1249,7 +1362,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3">
         <v>265</v>
@@ -1257,7 +1370,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E38" s="3">
         <v>413</v>
@@ -1265,7 +1378,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E39" s="3">
         <f>34917+16556</f>
@@ -1274,7 +1387,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3">
         <v>246</v>
@@ -1282,7 +1395,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E41" s="3">
         <v>591</v>
@@ -1290,7 +1403,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E42" s="3">
         <f>SUM(E34:E41)</f>
@@ -1299,7 +1412,7 @@
     </row>
     <row r="44" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E44" s="3">
         <v>553</v>
@@ -1307,7 +1420,7 @@
     </row>
     <row r="45" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E45" s="3">
         <v>1073</v>
@@ -1324,7 +1437,7 @@
     </row>
     <row r="47" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E47" s="3">
         <f>199+3397</f>
@@ -1333,7 +1446,7 @@
     </row>
     <row r="48" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E48" s="3">
         <v>3694</v>
@@ -1341,7 +1454,7 @@
     </row>
     <row r="49" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E49" s="3">
         <v>869</v>
@@ -1349,7 +1462,7 @@
     </row>
     <row r="50" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E50" s="3">
         <v>535</v>
@@ -1357,7 +1470,7 @@
     </row>
     <row r="51" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3">
         <v>180</v>
@@ -1365,7 +1478,7 @@
     </row>
     <row r="52" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E52" s="3">
         <v>815</v>
@@ -1373,7 +1486,7 @@
     </row>
     <row r="53" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E53" s="3">
         <f>4252+33256</f>
@@ -1382,7 +1495,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E54" s="3">
         <f>SUM(E44:E53)</f>
@@ -1391,7 +1504,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3">
         <v>2603</v>
